--- a/Unity/Assets/Config/Excel/Datas/SweetConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/SweetConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93896A2-EF87-4AD0-97D7-5B64CA6D1FAE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0F5BAD-5B41-4890-8DF5-7D79CC08B0AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>##var</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -98,6 +98,78 @@
   </si>
   <si>
     <t>Blue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Green</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>马卡龙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色的马卡龙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>板糖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉色的板糖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pink</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Purple</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Red</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yellow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛋糕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提拉米苏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大蛋糕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色大蛋糕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色小蛋糕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄色提拉米苏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>空物体</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmptyPrefab</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -460,7 +532,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -574,56 +646,126 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="B5" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="B6" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="B7" s="3">
+        <v>1004</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="B8" s="3">
+        <v>1005</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="B9" s="3">
+        <v>1006</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="B10" s="3">
+        <v>1007</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
